--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/DSQUARED2/HomepageListApp/app/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5B80F-E4EA-E845-A988-B4C9ABA63DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="556">
   <si>
     <t>Category ID</t>
   </si>
@@ -1577,27 +1599,140 @@
   </si>
   <si>
     <t>women-smurfs-x-dsquared2</t>
+  </si>
+  <si>
+    <t>singlesday23</t>
+  </si>
+  <si>
+    <t>singlesday23-kids</t>
+  </si>
+  <si>
+    <t>singlesday23-kids-boy</t>
+  </si>
+  <si>
+    <t>singlesday23-kids-girl</t>
+  </si>
+  <si>
+    <t>singlesday23-kids-new-born</t>
+  </si>
+  <si>
+    <t>singlesday23-men</t>
+  </si>
+  <si>
+    <t>singlesday23-men-accessories</t>
+  </si>
+  <si>
+    <t>singlesday23-men-bags</t>
+  </si>
+  <si>
+    <t>singlesday23-men-baseball-caps</t>
+  </si>
+  <si>
+    <t>singlesday23-men-dsquared2-icon</t>
+  </si>
+  <si>
+    <t>singlesday23-men-jeans</t>
+  </si>
+  <si>
+    <t>singlesday23-men-ready-to-wear</t>
+  </si>
+  <si>
+    <t>singlesday23-men-shoes</t>
+  </si>
+  <si>
+    <t>singlesday23-men-t-shirts</t>
+  </si>
+  <si>
+    <t>singlesday23-women</t>
+  </si>
+  <si>
+    <t>singlesday23-women-accessories</t>
+  </si>
+  <si>
+    <t>singlesday23-women-bags</t>
+  </si>
+  <si>
+    <t>singlesday23-women-baseball-caps</t>
+  </si>
+  <si>
+    <t>singlesday23-women-dsquared2-icon</t>
+  </si>
+  <si>
+    <t>singlesday23-women-jeans</t>
+  </si>
+  <si>
+    <t>singlesday23-women-ready-to-wear</t>
+  </si>
+  <si>
+    <t>singlesday23-women-shoes</t>
+  </si>
+  <si>
+    <t>singlesday23-women-t-shirts</t>
+  </si>
+  <si>
+    <t>singlesday23-petcollection</t>
+  </si>
+  <si>
+    <t>singlesday23-men-coats</t>
+  </si>
+  <si>
+    <t>singlesday23-men-sweatshirts</t>
+  </si>
+  <si>
+    <t>singlesday23-men-shirts</t>
+  </si>
+  <si>
+    <t>singlesday23-men-trousers</t>
+  </si>
+  <si>
+    <t>singlesday23-men-suits-blazers</t>
+  </si>
+  <si>
+    <t>singlesday23-women-coats</t>
+  </si>
+  <si>
+    <t>singlesday23-women-sweatshirts</t>
+  </si>
+  <si>
+    <t>singlesday23-women-shirts</t>
+  </si>
+  <si>
+    <t>singlesday23-women-trousers</t>
+  </si>
+  <si>
+    <t>singlesday23-women-dresses-jumpsuits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1605,39 +1740,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1827,24 +1968,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="B545" sqref="B545:B559"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.88"/>
-    <col customWidth="1" min="2" max="2" width="34.5"/>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1924,7 +2070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +2078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1940,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1948,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1956,7 +2102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +2118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1980,7 +2126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1988,7 +2134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +2142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2036,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2044,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2068,7 +2214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2076,7 +2222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2092,7 +2238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2100,7 +2246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -2108,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2116,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2124,7 +2270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2140,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2156,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2164,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2172,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +2350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -2220,7 +2366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2228,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2244,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2268,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -2276,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -2284,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2324,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2340,7 +2486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2356,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -2364,7 +2510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -2372,7 +2518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -2380,7 +2526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2388,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2396,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2404,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +2558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -2420,7 +2566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2444,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2452,7 +2598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -2460,7 +2606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -2476,7 +2622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -2492,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -2500,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -2508,7 +2654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -2516,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -2524,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -2532,7 +2678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -2540,7 +2686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2548,7 +2694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -2556,7 +2702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -2564,7 +2710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -2572,7 +2718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -2588,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -2596,7 +2742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -2604,7 +2750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -2612,7 +2758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -2620,7 +2766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
@@ -2628,7 +2774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -2636,7 +2782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
@@ -2644,7 +2790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -2652,7 +2798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
@@ -2660,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
@@ -2668,7 +2814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -2676,7 +2822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
@@ -2684,7 +2830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -2692,7 +2838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -2700,7 +2846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -2708,7 +2854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
@@ -2716,7 +2862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
@@ -2724,7 +2870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
@@ -2732,7 +2878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -2740,7 +2886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
@@ -2748,7 +2894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -2756,7 +2902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
@@ -2764,7 +2910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -2772,7 +2918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
@@ -2780,7 +2926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -2788,7 +2934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
@@ -2796,7 +2942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -2804,7 +2950,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
@@ -2812,7 +2958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
@@ -2820,7 +2966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
@@ -2828,7 +2974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -2836,7 +2982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -2844,7 +2990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
@@ -2852,7 +2998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
@@ -2860,7 +3006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
@@ -2868,7 +3014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -2876,7 +3022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
@@ -2884,7 +3030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>133</v>
       </c>
@@ -2892,7 +3038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -2900,7 +3046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
@@ -2908,7 +3054,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>136</v>
       </c>
@@ -2916,7 +3062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
@@ -2924,7 +3070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
@@ -2932,7 +3078,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>139</v>
       </c>
@@ -2940,7 +3086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
@@ -2948,7 +3094,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -2956,7 +3102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
@@ -2964,7 +3110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
@@ -2972,7 +3118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -2980,7 +3126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
@@ -2988,7 +3134,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -2996,7 +3142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -3004,7 +3150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -3012,7 +3158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -3020,7 +3166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -3028,7 +3174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -3036,7 +3182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -3044,7 +3190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -3052,7 +3198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -3060,7 +3206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -3068,7 +3214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -3076,7 +3222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -3084,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -3092,7 +3238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -3100,7 +3246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -3108,7 +3254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -3116,7 +3262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -3124,7 +3270,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -3132,7 +3278,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -3140,7 +3286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -3148,7 +3294,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -3156,7 +3302,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -3164,7 +3310,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -3172,7 +3318,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -3180,7 +3326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -3188,7 +3334,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -3196,7 +3342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
@@ -3204,7 +3350,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
@@ -3212,7 +3358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
@@ -3220,7 +3366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
@@ -3228,7 +3374,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
@@ -3236,7 +3382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
@@ -3244,7 +3390,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
@@ -3252,7 +3398,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
@@ -3260,7 +3406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
@@ -3268,7 +3414,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
@@ -3276,7 +3422,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
@@ -3284,7 +3430,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
@@ -3292,7 +3438,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
@@ -3300,7 +3446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
@@ -3308,7 +3454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
@@ -3316,7 +3462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
@@ -3324,7 +3470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
@@ -3332,7 +3478,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
@@ -3340,7 +3486,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
@@ -3348,7 +3494,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
@@ -3356,7 +3502,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
@@ -3364,7 +3510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>193</v>
       </c>
@@ -3372,7 +3518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>194</v>
       </c>
@@ -3380,7 +3526,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>195</v>
       </c>
@@ -3388,7 +3534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
@@ -3396,7 +3542,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
@@ -3404,7 +3550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>198</v>
       </c>
@@ -3412,7 +3558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
@@ -3420,7 +3566,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>200</v>
       </c>
@@ -3428,7 +3574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>201</v>
       </c>
@@ -3436,7 +3582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>202</v>
       </c>
@@ -3444,7 +3590,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>203</v>
       </c>
@@ -3452,7 +3598,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>204</v>
       </c>
@@ -3460,7 +3606,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
@@ -3468,7 +3614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>206</v>
       </c>
@@ -3476,7 +3622,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>207</v>
       </c>
@@ -3484,7 +3630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>208</v>
       </c>
@@ -3492,7 +3638,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>209</v>
       </c>
@@ -3500,7 +3646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>210</v>
       </c>
@@ -3508,7 +3654,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
@@ -3516,7 +3662,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>212</v>
       </c>
@@ -3524,7 +3670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>213</v>
       </c>
@@ -3532,7 +3678,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
@@ -3540,7 +3686,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>215</v>
       </c>
@@ -3548,7 +3694,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -3556,7 +3702,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>217</v>
       </c>
@@ -3564,7 +3710,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
@@ -3572,7 +3718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
@@ -3580,7 +3726,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>220</v>
       </c>
@@ -3588,7 +3734,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
@@ -3596,7 +3742,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>222</v>
       </c>
@@ -3604,7 +3750,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
@@ -3612,7 +3758,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
@@ -3620,7 +3766,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>225</v>
       </c>
@@ -3628,7 +3774,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>226</v>
       </c>
@@ -3636,7 +3782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
@@ -3644,7 +3790,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>228</v>
       </c>
@@ -3652,7 +3798,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
@@ -3660,7 +3806,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -3668,7 +3814,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>231</v>
       </c>
@@ -3676,7 +3822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
@@ -3684,7 +3830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -3692,7 +3838,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>234</v>
       </c>
@@ -3700,7 +3846,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
@@ -3708,7 +3854,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>236</v>
       </c>
@@ -3716,7 +3862,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>237</v>
       </c>
@@ -3724,7 +3870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>238</v>
       </c>
@@ -3732,7 +3878,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>239</v>
       </c>
@@ -3740,7 +3886,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>240</v>
       </c>
@@ -3748,7 +3894,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>241</v>
       </c>
@@ -3756,7 +3902,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
@@ -3764,7 +3910,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>243</v>
       </c>
@@ -3772,7 +3918,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>244</v>
       </c>
@@ -3780,7 +3926,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>245</v>
       </c>
@@ -3788,7 +3934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>246</v>
       </c>
@@ -3796,7 +3942,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
@@ -3804,7 +3950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>248</v>
       </c>
@@ -3812,7 +3958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>249</v>
       </c>
@@ -3820,7 +3966,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>250</v>
       </c>
@@ -3828,7 +3974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>251</v>
       </c>
@@ -3836,7 +3982,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>252</v>
       </c>
@@ -3844,7 +3990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
@@ -3852,7 +3998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
@@ -3860,7 +4006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>256</v>
       </c>
@@ -3876,7 +4022,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
@@ -3884,7 +4030,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>258</v>
       </c>
@@ -3892,7 +4038,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
@@ -3900,7 +4046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>260</v>
       </c>
@@ -3908,7 +4054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>261</v>
       </c>
@@ -3916,7 +4062,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
@@ -3924,7 +4070,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>263</v>
       </c>
@@ -3932,7 +4078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>264</v>
       </c>
@@ -3940,7 +4086,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>265</v>
       </c>
@@ -3948,7 +4094,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>266</v>
       </c>
@@ -3956,7 +4102,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
@@ -3964,7 +4110,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
@@ -3972,7 +4118,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
@@ -3980,7 +4126,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
@@ -3988,7 +4134,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>271</v>
       </c>
@@ -3996,7 +4142,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
         <v>272</v>
       </c>
@@ -4004,7 +4150,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
@@ -4012,7 +4158,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
@@ -4020,7 +4166,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
@@ -4028,7 +4174,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
@@ -4036,7 +4182,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>277</v>
       </c>
@@ -4044,7 +4190,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>278</v>
       </c>
@@ -4052,7 +4198,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
@@ -4060,7 +4206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>280</v>
       </c>
@@ -4068,7 +4214,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>281</v>
       </c>
@@ -4076,7 +4222,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>282</v>
       </c>
@@ -4084,7 +4230,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>283</v>
       </c>
@@ -4092,7 +4238,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>284</v>
       </c>
@@ -4100,7 +4246,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
@@ -4108,7 +4254,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>286</v>
       </c>
@@ -4116,7 +4262,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>287</v>
       </c>
@@ -4124,7 +4270,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>288</v>
       </c>
@@ -4132,7 +4278,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
@@ -4140,7 +4286,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>290</v>
       </c>
@@ -4148,7 +4294,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>291</v>
       </c>
@@ -4156,7 +4302,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>292</v>
       </c>
@@ -4164,7 +4310,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>293</v>
       </c>
@@ -4172,7 +4318,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
         <v>294</v>
       </c>
@@ -4180,7 +4326,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
         <v>295</v>
       </c>
@@ -4188,7 +4334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>296</v>
       </c>
@@ -4196,7 +4342,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>297</v>
       </c>
@@ -4204,7 +4350,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>298</v>
       </c>
@@ -4212,7 +4358,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>299</v>
       </c>
@@ -4220,7 +4366,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>300</v>
       </c>
@@ -4228,7 +4374,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>301</v>
       </c>
@@ -4236,7 +4382,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
         <v>302</v>
       </c>
@@ -4244,7 +4390,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
@@ -4252,7 +4398,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>304</v>
       </c>
@@ -4260,7 +4406,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
@@ -4268,7 +4414,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
@@ -4276,7 +4422,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
@@ -4284,7 +4430,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
@@ -4292,7 +4438,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
@@ -4300,7 +4446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
@@ -4308,7 +4454,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
         <v>311</v>
       </c>
@@ -4316,7 +4462,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>312</v>
       </c>
@@ -4324,7 +4470,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>313</v>
       </c>
@@ -4332,7 +4478,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>314</v>
       </c>
@@ -4340,7 +4486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>315</v>
       </c>
@@ -4348,7 +4494,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
@@ -4356,7 +4502,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>317</v>
       </c>
@@ -4364,7 +4510,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>318</v>
       </c>
@@ -4372,7 +4518,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>319</v>
       </c>
@@ -4380,7 +4526,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
@@ -4388,7 +4534,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>321</v>
       </c>
@@ -4396,7 +4542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>322</v>
       </c>
@@ -4404,7 +4550,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>323</v>
       </c>
@@ -4412,7 +4558,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
@@ -4420,7 +4566,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>325</v>
       </c>
@@ -4428,7 +4574,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
@@ -4436,7 +4582,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>327</v>
       </c>
@@ -4444,7 +4590,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
@@ -4452,7 +4598,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>329</v>
       </c>
@@ -4460,7 +4606,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
@@ -4468,7 +4614,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
@@ -4476,7 +4622,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
@@ -4484,7 +4630,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
@@ -4492,7 +4638,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
@@ -4500,7 +4646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>335</v>
       </c>
@@ -4508,7 +4654,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
@@ -4516,7 +4662,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
@@ -4524,7 +4670,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
@@ -4532,7 +4678,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>339</v>
       </c>
@@ -4540,7 +4686,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>340</v>
       </c>
@@ -4548,7 +4694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
@@ -4556,7 +4702,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>342</v>
       </c>
@@ -4564,7 +4710,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>343</v>
       </c>
@@ -4572,7 +4718,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>344</v>
       </c>
@@ -4580,7 +4726,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>345</v>
       </c>
@@ -4588,7 +4734,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>346</v>
       </c>
@@ -4596,7 +4742,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>347</v>
       </c>
@@ -4604,7 +4750,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>348</v>
       </c>
@@ -4612,7 +4758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>349</v>
       </c>
@@ -4620,7 +4766,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>350</v>
       </c>
@@ -4628,7 +4774,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>351</v>
       </c>
@@ -4636,7 +4782,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>352</v>
       </c>
@@ -4644,7 +4790,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>353</v>
       </c>
@@ -4652,7 +4798,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
@@ -4660,7 +4806,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>355</v>
       </c>
@@ -4668,7 +4814,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>356</v>
       </c>
@@ -4676,7 +4822,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>357</v>
       </c>
@@ -4684,7 +4830,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>358</v>
       </c>
@@ -4692,7 +4838,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>359</v>
       </c>
@@ -4700,7 +4846,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>360</v>
       </c>
@@ -4708,7 +4854,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>361</v>
       </c>
@@ -4716,7 +4862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>362</v>
       </c>
@@ -4724,7 +4870,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>363</v>
       </c>
@@ -4732,7 +4878,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>364</v>
       </c>
@@ -4740,7 +4886,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>365</v>
       </c>
@@ -4748,7 +4894,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>366</v>
       </c>
@@ -4756,7 +4902,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>367</v>
       </c>
@@ -4764,7 +4910,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>368</v>
       </c>
@@ -4772,7 +4918,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
@@ -4780,7 +4926,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>370</v>
       </c>
@@ -4788,7 +4934,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>371</v>
       </c>
@@ -4796,7 +4942,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>372</v>
       </c>
@@ -4804,7 +4950,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>373</v>
       </c>
@@ -4812,7 +4958,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>374</v>
       </c>
@@ -4820,7 +4966,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>375</v>
       </c>
@@ -4828,7 +4974,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>376</v>
       </c>
@@ -4836,7 +4982,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>377</v>
       </c>
@@ -4844,7 +4990,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>378</v>
       </c>
@@ -4852,7 +4998,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>379</v>
       </c>
@@ -4860,7 +5006,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>380</v>
       </c>
@@ -4868,7 +5014,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>381</v>
       </c>
@@ -4876,7 +5022,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>382</v>
       </c>
@@ -4884,7 +5030,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>383</v>
       </c>
@@ -4892,7 +5038,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>384</v>
       </c>
@@ -4900,7 +5046,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>385</v>
       </c>
@@ -4908,7 +5054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>386</v>
       </c>
@@ -4916,7 +5062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>387</v>
       </c>
@@ -4924,7 +5070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>388</v>
       </c>
@@ -4932,7 +5078,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>389</v>
       </c>
@@ -4940,7 +5086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>390</v>
       </c>
@@ -4948,7 +5094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
@@ -4956,7 +5102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>392</v>
       </c>
@@ -4964,7 +5110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>3</v>
       </c>
@@ -4972,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>393</v>
       </c>
@@ -4980,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>394</v>
       </c>
@@ -4988,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>10</v>
       </c>
@@ -4996,7 +5142,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>396</v>
       </c>
@@ -5004,7 +5150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>397</v>
       </c>
@@ -5012,7 +5158,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>398</v>
       </c>
@@ -5020,7 +5166,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>399</v>
       </c>
@@ -5028,7 +5174,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>400</v>
       </c>
@@ -5036,7 +5182,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>401</v>
       </c>
@@ -5044,7 +5190,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
         <v>402</v>
       </c>
@@ -5052,7 +5198,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
         <v>403</v>
       </c>
@@ -5060,7 +5206,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
         <v>404</v>
       </c>
@@ -5068,7 +5214,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2" t="s">
         <v>405</v>
       </c>
@@ -5076,7 +5222,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
         <v>406</v>
       </c>
@@ -5084,7 +5230,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
         <v>407</v>
       </c>
@@ -5092,7 +5238,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2" t="s">
         <v>408</v>
       </c>
@@ -5100,7 +5246,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>409</v>
       </c>
@@ -5108,7 +5254,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
         <v>410</v>
       </c>
@@ -5116,7 +5262,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="2" t="s">
         <v>411</v>
       </c>
@@ -5124,7 +5270,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
         <v>412</v>
       </c>
@@ -5132,7 +5278,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
         <v>413</v>
       </c>
@@ -5140,7 +5286,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
         <v>414</v>
       </c>
@@ -5148,7 +5294,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="2" t="s">
         <v>415</v>
       </c>
@@ -5156,7 +5302,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
         <v>416</v>
       </c>
@@ -5164,7 +5310,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
         <v>417</v>
       </c>
@@ -5172,7 +5318,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>418</v>
       </c>
@@ -5180,7 +5326,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="2" t="s">
         <v>419</v>
       </c>
@@ -5188,7 +5334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="2" t="s">
         <v>420</v>
       </c>
@@ -5196,7 +5342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="2" t="s">
         <v>421</v>
       </c>
@@ -5204,7 +5350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>422</v>
       </c>
@@ -5212,7 +5358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2" t="s">
         <v>423</v>
       </c>
@@ -5220,7 +5366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2" t="s">
         <v>424</v>
       </c>
@@ -5228,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2" t="s">
         <v>425</v>
       </c>
@@ -5236,7 +5382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2" t="s">
         <v>426</v>
       </c>
@@ -5244,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2" t="s">
         <v>427</v>
       </c>
@@ -5252,7 +5398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2" t="s">
         <v>428</v>
       </c>
@@ -5260,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2" t="s">
         <v>429</v>
       </c>
@@ -5268,7 +5414,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2" t="s">
         <v>430</v>
       </c>
@@ -5276,7 +5422,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2" t="s">
         <v>431</v>
       </c>
@@ -5284,7 +5430,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2" t="s">
         <v>432</v>
       </c>
@@ -5292,7 +5438,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2" t="s">
         <v>433</v>
       </c>
@@ -5300,7 +5446,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2" t="s">
         <v>434</v>
       </c>
@@ -5308,7 +5454,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2" t="s">
         <v>435</v>
       </c>
@@ -5316,7 +5462,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="2" t="s">
         <v>436</v>
       </c>
@@ -5324,7 +5470,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>437</v>
       </c>
@@ -5332,7 +5478,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>438</v>
       </c>
@@ -5340,7 +5486,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>439</v>
       </c>
@@ -5348,7 +5494,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="2" t="s">
         <v>440</v>
       </c>
@@ -5356,7 +5502,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>441</v>
       </c>
@@ -5364,7 +5510,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="2" t="s">
         <v>442</v>
       </c>
@@ -5372,7 +5518,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="2" t="s">
         <v>443</v>
       </c>
@@ -5380,7 +5526,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="2" t="s">
         <v>444</v>
       </c>
@@ -5388,7 +5534,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="2" t="s">
         <v>445</v>
       </c>
@@ -5396,7 +5542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>446</v>
       </c>
@@ -5404,7 +5550,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>447</v>
       </c>
@@ -5412,7 +5558,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>448</v>
       </c>
@@ -5420,7 +5566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>449</v>
       </c>
@@ -5428,7 +5574,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>450</v>
       </c>
@@ -5436,7 +5582,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="2" t="s">
         <v>451</v>
       </c>
@@ -5444,7 +5590,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="2" t="s">
         <v>452</v>
       </c>
@@ -5452,7 +5598,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="2" t="s">
         <v>453</v>
       </c>
@@ -5460,7 +5606,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="2" t="s">
         <v>454</v>
       </c>
@@ -5468,7 +5614,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="2" t="s">
         <v>455</v>
       </c>
@@ -5476,7 +5622,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="2" t="s">
         <v>456</v>
       </c>
@@ -5484,7 +5630,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="2" t="s">
         <v>457</v>
       </c>
@@ -5492,7 +5638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="2" t="s">
         <v>458</v>
       </c>
@@ -5500,7 +5646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="2" t="s">
         <v>459</v>
       </c>
@@ -5508,7 +5654,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="2" t="s">
         <v>460</v>
       </c>
@@ -5516,7 +5662,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="2" t="s">
         <v>461</v>
       </c>
@@ -5524,7 +5670,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="2" t="s">
         <v>462</v>
       </c>
@@ -5532,7 +5678,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="2" t="s">
         <v>464</v>
       </c>
@@ -5540,7 +5686,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="2" t="s">
         <v>465</v>
       </c>
@@ -5548,7 +5694,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="2" t="s">
         <v>466</v>
       </c>
@@ -5556,7 +5702,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="2" t="s">
         <v>467</v>
       </c>
@@ -5564,7 +5710,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="2" t="s">
         <v>468</v>
       </c>
@@ -5572,7 +5718,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="2" t="s">
         <v>469</v>
       </c>
@@ -5580,7 +5726,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="2" t="s">
         <v>470</v>
       </c>
@@ -5588,7 +5734,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="2" t="s">
         <v>471</v>
       </c>
@@ -5596,7 +5742,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="2" t="s">
         <v>472</v>
       </c>
@@ -5604,7 +5750,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="2" t="s">
         <v>463</v>
       </c>
@@ -5612,7 +5758,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="2" t="s">
         <v>473</v>
       </c>
@@ -5620,7 +5766,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="2" t="s">
         <v>474</v>
       </c>
@@ -5628,7 +5774,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="2" t="s">
         <v>475</v>
       </c>
@@ -5636,7 +5782,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="2" t="s">
         <v>476</v>
       </c>
@@ -5644,7 +5790,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="2" t="s">
         <v>477</v>
       </c>
@@ -5652,7 +5798,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="2" t="s">
         <v>478</v>
       </c>
@@ -5660,7 +5806,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="2" t="s">
         <v>479</v>
       </c>
@@ -5668,7 +5814,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="2" t="s">
         <v>480</v>
       </c>
@@ -5676,7 +5822,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="2" t="s">
         <v>481</v>
       </c>
@@ -5684,7 +5830,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="2" t="s">
         <v>482</v>
       </c>
@@ -5692,7 +5838,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="2" t="s">
         <v>483</v>
       </c>
@@ -5700,7 +5846,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="2" t="s">
         <v>484</v>
       </c>
@@ -5708,7 +5854,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="2" t="s">
         <v>485</v>
       </c>
@@ -5716,7 +5862,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="2" t="s">
         <v>486</v>
       </c>
@@ -5724,7 +5870,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="2" t="s">
         <v>487</v>
       </c>
@@ -5732,7 +5878,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="2" t="s">
         <v>488</v>
       </c>
@@ -5740,7 +5886,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="2" t="s">
         <v>489</v>
       </c>
@@ -5748,7 +5894,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="2" t="s">
         <v>490</v>
       </c>
@@ -5756,7 +5902,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="2" t="s">
         <v>491</v>
       </c>
@@ -5764,7 +5910,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="2" t="s">
         <v>492</v>
       </c>
@@ -5772,7 +5918,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="2" t="s">
         <v>493</v>
       </c>
@@ -5780,7 +5926,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="2" t="s">
         <v>494</v>
       </c>
@@ -5788,7 +5934,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="2" t="s">
         <v>495</v>
       </c>
@@ -5796,7 +5942,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="2" t="s">
         <v>496</v>
       </c>
@@ -5804,7 +5950,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="2" t="s">
         <v>497</v>
       </c>
@@ -5812,7 +5958,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="2" t="s">
         <v>498</v>
       </c>
@@ -5820,7 +5966,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="2" t="s">
         <v>499</v>
       </c>
@@ -5828,7 +5974,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="2" t="s">
         <v>500</v>
       </c>
@@ -5836,7 +5982,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="2" t="s">
         <v>501</v>
       </c>
@@ -5844,7 +5990,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="2" t="s">
         <v>502</v>
       </c>
@@ -5852,7 +5998,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="2" t="s">
         <v>503</v>
       </c>
@@ -5860,7 +6006,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="2" t="s">
         <v>504</v>
       </c>
@@ -5868,7 +6014,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="2" t="s">
         <v>505</v>
       </c>
@@ -5876,7 +6022,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="2" t="s">
         <v>506</v>
       </c>
@@ -5884,7 +6030,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="2" t="s">
         <v>507</v>
       </c>
@@ -5892,7 +6038,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="2" t="s">
         <v>508</v>
       </c>
@@ -5900,7 +6046,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="2" t="s">
         <v>509</v>
       </c>
@@ -5908,7 +6054,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="2" t="s">
         <v>510</v>
       </c>
@@ -5916,7 +6062,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="2" t="s">
         <v>511</v>
       </c>
@@ -5924,7 +6070,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="2" t="s">
         <v>512</v>
       </c>
@@ -5932,7 +6078,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="2" t="s">
         <v>513</v>
       </c>
@@ -5940,7 +6086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="2" t="s">
         <v>514</v>
       </c>
@@ -5948,7 +6094,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="2" t="s">
         <v>515</v>
       </c>
@@ -5956,7 +6102,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="2" t="s">
         <v>516</v>
       </c>
@@ -5964,7 +6110,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="2" t="s">
         <v>517</v>
       </c>
@@ -5972,7 +6118,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="2" t="s">
         <v>518</v>
       </c>
@@ -5980,7 +6126,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="2" t="s">
         <v>519</v>
       </c>
@@ -5988,7 +6134,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="2" t="s">
         <v>520</v>
       </c>
@@ -5996,7 +6142,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="2" t="s">
         <v>521</v>
       </c>
@@ -6004,1927 +6150,2083 @@
         <v>428</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-    </row>
-    <row r="560">
+    <row r="521" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A521" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A522" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A523" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A524" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A525" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A526" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A527" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A528" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A529" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A530" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A531" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A532" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A533" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A534" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A535" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A536" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A537" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A538" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A539" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A540" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A541" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A542" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A543" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A544" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A545" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A546" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A547" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A548" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A549" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A550" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A551" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A552" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A553" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A554" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A555" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A556" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A557" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A558" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A559" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/DSQUARED2/HomepageListApp/app/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5B80F-E4EA-E845-A988-B4C9ABA63DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0926EC2-9BF2-C241-8D3D-7AB34AB189C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="559">
   <si>
     <t>Category ID</t>
   </si>
@@ -1701,6 +1701,15 @@
   </si>
   <si>
     <t>singlesday23-women-dresses-jumpsuits</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-co_ords</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-co_ords</t>
+  </si>
+  <si>
+    <t>Co-ords</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +1989,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="B545" sqref="B545:B559"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6463,23 +6472,39 @@
       </c>
     </row>
     <row r="560" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="561" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
+      <c r="A561" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="562" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
+      <c r="A562" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="563" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
+      <c r="A563" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="564" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A564" s="2"/>
+      <c r="A564" s="3"/>
       <c r="B564" s="2"/>
     </row>
     <row r="565" spans="1:2" ht="13" x14ac:dyDescent="0.15">

--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0926EC2-9BF2-C241-8D3D-7AB34AB189C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F329F06-80D2-6844-84A8-E6BAB1412F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="585">
   <si>
     <t>Category ID</t>
   </si>
@@ -1710,6 +1710,84 @@
   </si>
   <si>
     <t>Co-ords</t>
+  </si>
+  <si>
+    <t>men-642</t>
+  </si>
+  <si>
+    <t>men-642-twin-pack</t>
+  </si>
+  <si>
+    <t>men-big-brother</t>
+  </si>
+  <si>
+    <t>men-big-jean</t>
+  </si>
+  <si>
+    <t>men-bob</t>
+  </si>
+  <si>
+    <t>men-bro</t>
+  </si>
+  <si>
+    <t>men-combat</t>
+  </si>
+  <si>
+    <t>men-cool-guy</t>
+  </si>
+  <si>
+    <t>men-eros</t>
+  </si>
+  <si>
+    <t>men-richard</t>
+  </si>
+  <si>
+    <t>men-sexy-twist</t>
+  </si>
+  <si>
+    <t>men-skater</t>
+  </si>
+  <si>
+    <t>men-super-twinky</t>
+  </si>
+  <si>
+    <t>men-tidy-biker</t>
+  </si>
+  <si>
+    <t>women-642</t>
+  </si>
+  <si>
+    <t>women-80s</t>
+  </si>
+  <si>
+    <t>women-boston</t>
+  </si>
+  <si>
+    <t>women-capri</t>
+  </si>
+  <si>
+    <t>women-cool-girl</t>
+  </si>
+  <si>
+    <t>women-eros</t>
+  </si>
+  <si>
+    <t>women-flare</t>
+  </si>
+  <si>
+    <t>women-jennifer</t>
+  </si>
+  <si>
+    <t>women-roadie</t>
+  </si>
+  <si>
+    <t>women-traveller</t>
+  </si>
+  <si>
+    <t>women--trumpet</t>
+  </si>
+  <si>
+    <t>women-twiggy</t>
   </si>
 </sst>
 </file>
@@ -1987,10 +2065,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="G541" sqref="G541"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="D585" sqref="D585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6504,108 +6582,212 @@
       </c>
     </row>
     <row r="564" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A564" s="3"/>
-      <c r="B564" s="2"/>
+      <c r="A564" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="565" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="A565" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="566" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
+      <c r="A566" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="567" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
+      <c r="A567" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="568" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
+      <c r="A568" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="569" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="A569" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="570" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
+      <c r="A570" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="571" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
+      <c r="A571" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="572" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
+      <c r="A572" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="573" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
+      <c r="A573" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="574" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
+      <c r="A574" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="575" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
+      <c r="A575" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="576" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
+      <c r="A576" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="577" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
+      <c r="A577" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="578" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
+      <c r="A578" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="579" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
+      <c r="A579" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="580" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
+      <c r="A580" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="581" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
+      <c r="A581" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="582" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
+      <c r="A582" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="583" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
+      <c r="A583" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="584" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
+      <c r="A584" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="585" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
+      <c r="A585" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="586" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
+      <c r="A586" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="587" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="A587" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="588" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
+      <c r="A588" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="589" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
+      <c r="A589" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="590" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
@@ -8246,10 +8428,6 @@
     <row r="999" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
-    </row>
-    <row r="1000" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F329F06-80D2-6844-84A8-E6BAB1412F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C15C2F9-9F09-9349-AF0D-6350F69A87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,89 +1712,89 @@
     <t>Co-ords</t>
   </si>
   <si>
-    <t>men-642</t>
-  </si>
-  <si>
-    <t>men-642-twin-pack</t>
-  </si>
-  <si>
-    <t>men-big-brother</t>
-  </si>
-  <si>
-    <t>men-big-jean</t>
-  </si>
-  <si>
-    <t>men-bob</t>
-  </si>
-  <si>
-    <t>men-bro</t>
-  </si>
-  <si>
-    <t>men-combat</t>
-  </si>
-  <si>
-    <t>men-cool-guy</t>
-  </si>
-  <si>
-    <t>men-eros</t>
-  </si>
-  <si>
-    <t>men-richard</t>
-  </si>
-  <si>
-    <t>men-sexy-twist</t>
-  </si>
-  <si>
-    <t>men-skater</t>
-  </si>
-  <si>
-    <t>men-super-twinky</t>
-  </si>
-  <si>
-    <t>men-tidy-biker</t>
-  </si>
-  <si>
-    <t>women-642</t>
-  </si>
-  <si>
-    <t>women-80s</t>
-  </si>
-  <si>
-    <t>women-boston</t>
-  </si>
-  <si>
-    <t>women-capri</t>
-  </si>
-  <si>
-    <t>women-cool-girl</t>
-  </si>
-  <si>
-    <t>women-eros</t>
-  </si>
-  <si>
-    <t>women-flare</t>
-  </si>
-  <si>
-    <t>women-jennifer</t>
-  </si>
-  <si>
-    <t>women-roadie</t>
-  </si>
-  <si>
-    <t>women-traveller</t>
-  </si>
-  <si>
-    <t>women--trumpet</t>
-  </si>
-  <si>
-    <t>women-twiggy</t>
+    <t>men-ready-to-wear-jeans-642</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-642_twin_pack</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-big_brother</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-big_jean</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-bob</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-bro</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-combat</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-cool_guy</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-eros</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-richard</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-sexy_twist</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-skater</t>
+  </si>
+  <si>
+    <t>men-ready-to-wear-jeans-super_twinky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men-ready-to-wear-jeans-tidy_biker </t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-642</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-80s</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-boston</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-capri</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-cool_girl</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-eros</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-twiggy</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-jennifer</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-flare</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-roadie</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-traveller</t>
+  </si>
+  <si>
+    <t>women-ready-to-wear-jeans-trumpet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1821,6 +1821,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1842,11 +1849,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2068,7 +2076,7 @@
   <dimension ref="A1:B999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="D585" sqref="D585"/>
+      <selection activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6582,7 +6590,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A564" s="3" t="s">
+      <c r="A564" s="4" t="s">
         <v>559</v>
       </c>
       <c r="B564" s="2" t="s">
@@ -6590,7 +6598,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B565" s="2" t="s">
@@ -6598,7 +6606,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A566" s="2" t="s">
+      <c r="A566" s="4" t="s">
         <v>561</v>
       </c>
       <c r="B566" s="2" t="s">
@@ -6606,7 +6614,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A567" s="2" t="s">
+      <c r="A567" s="4" t="s">
         <v>562</v>
       </c>
       <c r="B567" s="2" t="s">
@@ -6614,7 +6622,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="4" t="s">
         <v>563</v>
       </c>
       <c r="B568" s="2" t="s">
@@ -6622,7 +6630,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A569" s="2" t="s">
+      <c r="A569" s="4" t="s">
         <v>564</v>
       </c>
       <c r="B569" s="2" t="s">
@@ -6630,7 +6638,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A570" s="2" t="s">
+      <c r="A570" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B570" s="2" t="s">
@@ -6638,7 +6646,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A571" s="2" t="s">
+      <c r="A571" s="4" t="s">
         <v>566</v>
       </c>
       <c r="B571" s="2" t="s">
@@ -6646,7 +6654,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A572" s="2" t="s">
+      <c r="A572" s="4" t="s">
         <v>567</v>
       </c>
       <c r="B572" s="2" t="s">
@@ -6654,7 +6662,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A573" s="2" t="s">
+      <c r="A573" s="4" t="s">
         <v>568</v>
       </c>
       <c r="B573" s="2" t="s">
@@ -6662,7 +6670,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="4" t="s">
         <v>569</v>
       </c>
       <c r="B574" s="2" t="s">
@@ -6670,7 +6678,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="4" t="s">
         <v>570</v>
       </c>
       <c r="B575" s="2" t="s">
@@ -6678,7 +6686,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A576" s="2" t="s">
+      <c r="A576" s="4" t="s">
         <v>571</v>
       </c>
       <c r="B576" s="2" t="s">
@@ -6686,7 +6694,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A577" s="2" t="s">
+      <c r="A577" s="4" t="s">
         <v>572</v>
       </c>
       <c r="B577" s="2" t="s">
@@ -6694,7 +6702,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A578" s="2" t="s">
+      <c r="A578" s="4" t="s">
         <v>573</v>
       </c>
       <c r="B578" s="2" t="s">
@@ -6702,7 +6710,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A579" s="2" t="s">
+      <c r="A579" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B579" s="2" t="s">
@@ -6710,7 +6718,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A580" s="2" t="s">
+      <c r="A580" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B580" s="2" t="s">
@@ -6718,7 +6726,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A581" s="2" t="s">
+      <c r="A581" s="4" t="s">
         <v>576</v>
       </c>
       <c r="B581" s="2" t="s">
@@ -6726,7 +6734,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A582" s="2" t="s">
+      <c r="A582" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -6734,7 +6742,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="4" t="s">
         <v>578</v>
       </c>
       <c r="B583" s="2" t="s">
@@ -6742,7 +6750,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A584" s="2" t="s">
+      <c r="A584" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B584" s="2" t="s">
@@ -6750,7 +6758,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A585" s="2" t="s">
+      <c r="A585" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B585" s="2" t="s">
@@ -6758,7 +6766,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A586" s="2" t="s">
+      <c r="A586" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B586" s="2" t="s">
@@ -6766,7 +6774,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A587" s="2" t="s">
+      <c r="A587" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B587" s="2" t="s">
@@ -6774,7 +6782,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A588" s="2" t="s">
+      <c r="A588" s="4" t="s">
         <v>583</v>
       </c>
       <c r="B588" s="2" t="s">
@@ -6782,7 +6790,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A589" s="2" t="s">
+      <c r="A589" s="4" t="s">
         <v>584</v>
       </c>
       <c r="B589" s="2" t="s">

--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC1830-8460-2346-A723-7FE64B735DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761E1AB-DC28-EC4A-BBE0-662CBA2E5183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="19960" xr2:uid="{FDDDAEBA-FD58-DC47-A1FB-387B170C6704}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="596">
   <si>
     <t>root</t>
   </si>
@@ -1752,6 +1752,78 @@
   </si>
   <si>
     <t>Parent ID</t>
+  </si>
+  <si>
+    <t>kids-boys</t>
+  </si>
+  <si>
+    <t>kids-girls</t>
+  </si>
+  <si>
+    <t>kids-baby-boys</t>
+  </si>
+  <si>
+    <t>kids-baby-girls</t>
+  </si>
+  <si>
+    <t>kids-boys-ready-to-wear</t>
+  </si>
+  <si>
+    <t>kids-boys-accessories</t>
+  </si>
+  <si>
+    <t>kids-boys-shoes</t>
+  </si>
+  <si>
+    <t>kids-boys-icon</t>
+  </si>
+  <si>
+    <t>kids-boys-sport-edtn-x</t>
+  </si>
+  <si>
+    <t>kids-girls-ready-to-wear</t>
+  </si>
+  <si>
+    <t>kids-girls-accessories</t>
+  </si>
+  <si>
+    <t>kids-girls-shoes</t>
+  </si>
+  <si>
+    <t>kids-girls-icon</t>
+  </si>
+  <si>
+    <t>kids-girls-sport-edtn-x</t>
+  </si>
+  <si>
+    <t>kids-baby-boys-ready-to-wear</t>
+  </si>
+  <si>
+    <t>kids-baby-boys-accessories</t>
+  </si>
+  <si>
+    <t>kids-baby-boys-shoes</t>
+  </si>
+  <si>
+    <t>kids-baby-boys-icon</t>
+  </si>
+  <si>
+    <t>kids-baby-boys-sport-edtn-x</t>
+  </si>
+  <si>
+    <t>kids-baby-girls-ready-to-wear</t>
+  </si>
+  <si>
+    <t>kids-baby-girls-accessories</t>
+  </si>
+  <si>
+    <t>kids-baby-girls-shoes</t>
+  </si>
+  <si>
+    <t>kids-baby-girls-icon</t>
+  </si>
+  <si>
+    <t>kids-baby-girls-sport-edtn-x</t>
   </si>
 </sst>
 </file>
@@ -2131,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6066F25-FF43-4844-A1D1-7215DA5BC5D0}">
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="B594" sqref="B594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6703,6 +6775,198 @@
         <v>77</v>
       </c>
     </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>29</v>
+      </c>
+      <c r="B571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>29</v>
+      </c>
+      <c r="B572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>29</v>
+      </c>
+      <c r="B573" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>29</v>
+      </c>
+      <c r="B574" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>572</v>
+      </c>
+      <c r="B575" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>572</v>
+      </c>
+      <c r="B576" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>572</v>
+      </c>
+      <c r="B577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>572</v>
+      </c>
+      <c r="B578" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>572</v>
+      </c>
+      <c r="B579" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>573</v>
+      </c>
+      <c r="B580" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>573</v>
+      </c>
+      <c r="B581" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>573</v>
+      </c>
+      <c r="B582" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>573</v>
+      </c>
+      <c r="B583" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>573</v>
+      </c>
+      <c r="B584" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>574</v>
+      </c>
+      <c r="B585" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>574</v>
+      </c>
+      <c r="B586" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>574</v>
+      </c>
+      <c r="B587" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>574</v>
+      </c>
+      <c r="B588" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>574</v>
+      </c>
+      <c r="B589" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>575</v>
+      </c>
+      <c r="B590" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>575</v>
+      </c>
+      <c r="B591" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>575</v>
+      </c>
+      <c r="B592" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>575</v>
+      </c>
+      <c r="B593" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>575</v>
+      </c>
+      <c r="B594" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/categoryParent.xlsx
+++ b/public/categoryParent.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/islam.eddassouli/Desktop/VercelHomepageAPP/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761E1AB-DC28-EC4A-BBE0-662CBA2E5183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B8FFB-EF37-1A4D-8B8E-2C8D7F66C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="19960" xr2:uid="{FDDDAEBA-FD58-DC47-A1FB-387B170C6704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2205,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6066F25-FF43-4844-A1D1-7215DA5BC5D0}">
   <dimension ref="A1:B594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="B594" sqref="B594"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6777,194 +6777,194 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
+        <v>572</v>
+      </c>
+      <c r="B571" t="s">
         <v>29</v>
-      </c>
-      <c r="B571" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>573</v>
+      </c>
+      <c r="B572" t="s">
         <v>29</v>
-      </c>
-      <c r="B572" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
+        <v>574</v>
+      </c>
+      <c r="B573" t="s">
         <v>29</v>
-      </c>
-      <c r="B573" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
+        <v>575</v>
+      </c>
+      <c r="B574" t="s">
         <v>29</v>
-      </c>
-      <c r="B574" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
+        <v>576</v>
+      </c>
+      <c r="B575" t="s">
         <v>572</v>
-      </c>
-      <c r="B575" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576" t="s">
         <v>572</v>
-      </c>
-      <c r="B576" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
+        <v>578</v>
+      </c>
+      <c r="B577" t="s">
         <v>572</v>
-      </c>
-      <c r="B577" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578" t="s">
         <v>572</v>
-      </c>
-      <c r="B578" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
+        <v>580</v>
+      </c>
+      <c r="B579" t="s">
         <v>572</v>
-      </c>
-      <c r="B579" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
+        <v>581</v>
+      </c>
+      <c r="B580" t="s">
         <v>573</v>
-      </c>
-      <c r="B580" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
+        <v>582</v>
+      </c>
+      <c r="B581" t="s">
         <v>573</v>
-      </c>
-      <c r="B581" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
+        <v>583</v>
+      </c>
+      <c r="B582" t="s">
         <v>573</v>
-      </c>
-      <c r="B582" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
+        <v>584</v>
+      </c>
+      <c r="B583" t="s">
         <v>573</v>
-      </c>
-      <c r="B583" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
+        <v>585</v>
+      </c>
+      <c r="B584" t="s">
         <v>573</v>
-      </c>
-      <c r="B584" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
+        <v>586</v>
+      </c>
+      <c r="B585" t="s">
         <v>574</v>
-      </c>
-      <c r="B585" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
+        <v>587</v>
+      </c>
+      <c r="B586" t="s">
         <v>574</v>
-      </c>
-      <c r="B586" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
+        <v>588</v>
+      </c>
+      <c r="B587" t="s">
         <v>574</v>
-      </c>
-      <c r="B587" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
+        <v>589</v>
+      </c>
+      <c r="B588" t="s">
         <v>574</v>
-      </c>
-      <c r="B588" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
+        <v>590</v>
+      </c>
+      <c r="B589" t="s">
         <v>574</v>
-      </c>
-      <c r="B589" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
+        <v>591</v>
+      </c>
+      <c r="B590" t="s">
         <v>575</v>
-      </c>
-      <c r="B590" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
+        <v>592</v>
+      </c>
+      <c r="B591" t="s">
         <v>575</v>
-      </c>
-      <c r="B591" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
+        <v>593</v>
+      </c>
+      <c r="B592" t="s">
         <v>575</v>
-      </c>
-      <c r="B592" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
+        <v>594</v>
+      </c>
+      <c r="B593" t="s">
         <v>575</v>
-      </c>
-      <c r="B593" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
+        <v>595</v>
+      </c>
+      <c r="B594" t="s">
         <v>575</v>
-      </c>
-      <c r="B594" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
